--- a/game28/web.xlsx
+++ b/game28/web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="13440" windowHeight="5730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>domain</t>
   </si>
@@ -43,31 +43,34 @@
     <t>color2</t>
   </si>
   <si>
-    <t>perambulate.top</t>
-  </si>
-  <si>
-    <t>#eba46f</t>
-  </si>
-  <si>
-    <t>sesquipedalian.fun</t>
-  </si>
-  <si>
-    <t>#c2849f</t>
-  </si>
-  <si>
-    <t>moseyquaff.fun</t>
-  </si>
-  <si>
-    <t>#746097</t>
-  </si>
-  <si>
-    <t>fremitus.site</t>
-  </si>
-  <si>
-    <t>#dc7067</t>
-  </si>
-  <si>
-    <t>susurrate.site</t>
+    <t>matchfy.site</t>
+  </si>
+  <si>
+    <t>#ffd9a3</t>
+  </si>
+  <si>
+    <t>teamburst.site</t>
+  </si>
+  <si>
+    <t>#f597ba</t>
+  </si>
+  <si>
+    <t>floplay.fun</t>
+  </si>
+  <si>
+    <t>#b8f500</t>
+  </si>
+  <si>
+    <t>rivplay.fun</t>
+  </si>
+  <si>
+    <t>#bdd0c4</t>
+  </si>
+  <si>
+    <t>arclands.fun</t>
+  </si>
+  <si>
+    <t>#957aa9</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,7 +99,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -245,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,25 +277,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBA46F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC2849F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF746097"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDC7067"/>
+        <fgColor rgb="FFFFD9A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF597BA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8F500"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD0C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF957AA9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,12 +492,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E4E6"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -595,157 +627,166 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1061,7 +1102,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1083,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1092,44 +1133,40 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="perambulate.top"/>
-    <hyperlink ref="A3" r:id="rId2" display="sesquipedalian.fun"/>
-    <hyperlink ref="A4" r:id="rId3" display="moseyquaff.fun"/>
-    <hyperlink ref="A5" r:id="rId4" display="fremitus.site"/>
-    <hyperlink ref="A6" r:id="rId5" display="susurrate.site"/>
+    <hyperlink ref="A2" r:id="rId1" display="matchfy.site"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/game28/web.xlsx
+++ b/game28/web.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>domain</t>
   </si>
@@ -43,31 +43,37 @@
     <t>color2</t>
   </si>
   <si>
-    <t>matchfy.site</t>
+    <t>info</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>frostspike.com</t>
   </si>
   <si>
     <t>#ffd9a3</t>
   </si>
   <si>
-    <t>teamburst.site</t>
+    <t>warpblade.com</t>
   </si>
   <si>
     <t>#f597ba</t>
   </si>
   <si>
-    <t>floplay.fun</t>
+    <t>ghostlurk.com</t>
   </si>
   <si>
     <t>#b8f500</t>
   </si>
   <si>
-    <t>rivplay.fun</t>
+    <t>emberlurk.com</t>
   </si>
   <si>
     <t>#bdd0c4</t>
   </si>
   <si>
-    <t>arclands.fun</t>
+    <t>runepeak.com</t>
   </si>
   <si>
     <t>#957aa9</t>
@@ -83,7 +89,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,11 +105,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF2972F4"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -492,21 +505,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE3E4E6"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -627,165 +631,160 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1099,18 +1098,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,51 +1122,84 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="F6" s="2">
         <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="matchfy.site"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
